--- a/ChucNang.xlsx
+++ b/ChucNang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ngôn ngữ anh việt</t>
   </si>
@@ -49,13 +49,31 @@
   </si>
   <si>
     <t>3/9/2020 đang làm dỡ ở lại trang fontend index</t>
+  </si>
+  <si>
+    <t>ghi chú</t>
+  </si>
+  <si>
+    <t>post hiển thị bắt buộc phải có technology không sẽ bị lỗi</t>
+  </si>
+  <si>
+    <t>Chức năng</t>
+  </si>
+  <si>
+    <t>điểm danh tiếng của bài viết tính theo lượt vow của bài post + trả lời + đề xuất+ lượt xem</t>
+  </si>
+  <si>
+    <t>huy hiệu tính theo bài viết + câu trả lời : bài viết được 1 vow trở lên 1 đồng, 4 vow 1 bạc, 10 vow vàng, 20 vow bạc kim, 30 vow ruby</t>
+  </si>
+  <si>
+    <t>chức năng các nhân vật đánh giá nhau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +81,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,8 +114,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,68 +405,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ChucNang.xlsx
+++ b/ChucNang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ngôn ngữ anh việt</t>
   </si>
@@ -39,9 +39,6 @@
     <t>sắp xếp danh mục theo câu hỏi</t>
   </si>
   <si>
-    <t>tìm kiếm</t>
-  </si>
-  <si>
     <t>Phiếu bầu nạp tiền vào</t>
   </si>
   <si>
@@ -60,20 +57,41 @@
     <t>Chức năng</t>
   </si>
   <si>
-    <t>điểm danh tiếng của bài viết tính theo lượt vow của bài post + trả lời + đề xuất+ lượt xem</t>
-  </si>
-  <si>
-    <t>huy hiệu tính theo bài viết + câu trả lời : bài viết được 1 vow trở lên 1 đồng, 4 vow 1 bạc, 10 vow vàng, 20 vow bạc kim, 30 vow ruby</t>
-  </si>
-  <si>
     <t>chức năng các nhân vật đánh giá nhau</t>
+  </si>
+  <si>
+    <t>tìm kiếm , theo lượt tìm kiếm nhiều nhất, tìm kiếm theo bạn hay tìm</t>
+  </si>
+  <si>
+    <t>hiển thị theo lượt tìm kiếm nhiều nhất, hiển thị theo công nghệ của bạn,</t>
+  </si>
+  <si>
+    <t>làm tìm kiếm theo công nghệ để đưa ra việc làm phù hợp</t>
+  </si>
+  <si>
+    <t>nổi tiếng của bài viết tính bằng lượng thích cao, không cao, lương đánh dấu, lượng đánh dấu hoạt động, lượng trả lời bài viết đó, lượng đánh dấu trả lời bài viết đó, lượng thích trả lời bài viết đó và không thích.</t>
+  </si>
+  <si>
+    <t>Lưu ý</t>
+  </si>
+  <si>
+    <t>Tất cả trong CSDL không được để null, trừ đánh giá bài viết, và trả lời bài viết</t>
+  </si>
+  <si>
+    <t>huy hiệu tính theo bài viết + câu trả lời + đánh dấu + đánh dấu hoạt động : bài viết dc 4 vow 1 huy chương đồng , 8 vow được một huy chương bạc, 15 vow một huy chương vàng, 30 vow được một huy chương vip,</t>
+  </si>
+  <si>
+    <t>Làm thêm luyện tiếng anh chuyên ngành</t>
+  </si>
+  <si>
+    <t>điểm danh tiếng của bài viết tính theo lượt vow của bài post + trả lời + đề xuất+ lượt xem+dánh dấu+ đánh dấu hoạt động</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +104,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -114,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -125,6 +150,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,86 +431,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.140625" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ChucNang.xlsx
+++ b/ChucNang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ngôn ngữ anh việt</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>điểm danh tiếng của bài viết tính theo lượt vow của bài post + trả lời + đề xuất+ lượt xem+dánh dấu+ đánh dấu hoạt động</t>
+  </si>
+  <si>
+    <t>hiển thị câu hỏi quan tâm - hiển thị theo từ khóa hay search và click vào các bài viết</t>
   </si>
 </sst>
 </file>
@@ -433,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,9 +500,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
